--- a/Bảng điểm.xlsx
+++ b/Bảng điểm.xlsx
@@ -15,12 +15,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="23">
   <si>
     <t>Họ và Tên</t>
   </si>
   <si>
-    <t>Mã SV</t>
+    <t>Mã HS</t>
   </si>
   <si>
     <t>Chuyên cần</t>
@@ -38,6 +38,12 @@
     <t>Trung bình môn</t>
   </si>
   <si>
+    <t>Phạm Văn hiếu</t>
+  </si>
+  <si>
+    <t>B17DCAT112</t>
+  </si>
+  <si>
     <t>Trần Anh Đức</t>
   </si>
   <si>
@@ -60,6 +66,24 @@
   </si>
   <si>
     <t>B17DAT014</t>
+  </si>
+  <si>
+    <t>Nguyễn Diệu Anh</t>
+  </si>
+  <si>
+    <t>B17DAT015</t>
+  </si>
+  <si>
+    <t>Nguyễn Hoài Thu</t>
+  </si>
+  <si>
+    <t>B17DAT016</t>
+  </si>
+  <si>
+    <t>Phạm Văn Hiếu</t>
+  </si>
+  <si>
+    <t>B17DCAT124</t>
   </si>
 </sst>
 </file>
@@ -398,7 +422,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,13 +473,13 @@
         <v>10</v>
       </c>
       <c r="D2">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="E2">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="F2">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="G2">
         <v>10</v>
@@ -472,13 +496,13 @@
         <v>10</v>
       </c>
       <c r="D3">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="E3">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="F3">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="G3">
         <v>10</v>
@@ -495,13 +519,13 @@
         <v>10</v>
       </c>
       <c r="D4">
-        <v>7.75</v>
+        <v>8</v>
       </c>
       <c r="E4">
         <v>8</v>
       </c>
       <c r="F4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G4">
         <v>10</v>
@@ -518,13 +542,13 @@
         <v>10</v>
       </c>
       <c r="D5">
-        <v>8</v>
+        <v>7.75</v>
       </c>
       <c r="E5">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="F5">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="G5">
         <v>10</v>
@@ -532,10 +556,10 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C6">
         <v>10</v>
@@ -544,10 +568,10 @@
         <v>8</v>
       </c>
       <c r="E6">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="F6">
-        <v>8</v>
+        <v>8.75</v>
       </c>
       <c r="G6">
         <v>10</v>
@@ -564,13 +588,13 @@
         <v>10</v>
       </c>
       <c r="D7">
-        <v>7.75</v>
+        <v>8</v>
       </c>
       <c r="E7">
         <v>8</v>
       </c>
       <c r="F7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G7">
         <v>10</v>
@@ -587,15 +611,107 @@
         <v>10</v>
       </c>
       <c r="D8">
-        <v>8</v>
+        <v>7.75</v>
       </c>
       <c r="E8">
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <v>9</v>
+      </c>
+      <c r="G8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9">
         <v>7.5</v>
       </c>
-      <c r="F8">
+      <c r="F9">
         <v>8.75</v>
       </c>
-      <c r="G8">
+      <c r="G9">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <v>8.8</v>
+      </c>
+      <c r="G10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <v>9.25</v>
+      </c>
+      <c r="E11">
+        <v>9.5</v>
+      </c>
+      <c r="F11">
+        <v>9.25</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12">
+        <v>8.5</v>
+      </c>
+      <c r="E12">
+        <v>8</v>
+      </c>
+      <c r="F12">
+        <v>8.25</v>
+      </c>
+      <c r="G12">
         <v>10</v>
       </c>
     </row>
